--- a/location/RDP_QA.xlsx
+++ b/location/RDP_QA.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNguyen\Desktop\Lookup-Tables\location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8278938A-1D41-4A9B-9F05-3FED77618861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94B28C-FA61-400C-83B5-5DAD015385FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="345" windowWidth="20265" windowHeight="12105" xr2:uid="{E0A47365-E848-4183-B93A-B5A5BCA2FE42}"/>
+    <workbookView xWindow="22065" yWindow="225" windowWidth="20265" windowHeight="12450" xr2:uid="{E0A47365-E848-4183-B93A-B5A5BCA2FE42}"/>
   </bookViews>
   <sheets>
-    <sheet name="RDP_QA" sheetId="2" r:id="rId1"/>
+    <sheet name="Long data" sheetId="5" r:id="rId1"/>
+    <sheet name="RDP_QA" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="114">
   <si>
     <t>Canada</t>
   </si>
@@ -360,6 +362,21 @@
   </si>
   <si>
     <t>Dec-8-2015</t>
+  </si>
+  <si>
+    <t>Agreement_Start</t>
+  </si>
+  <si>
+    <t>Agreement_Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Latest_Amendment</t>
+  </si>
+  <si>
+    <t>Jul-7-1980</t>
   </si>
 </sst>
 </file>
@@ -395,8 +412,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,19 +728,499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE4A039-31E3-4CF9-98FD-CBBBED38930E}">
-  <dimension ref="A1:AE32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF60735F-3D45-4912-AD38-79F062951599}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE4A039-31E3-4CF9-98FD-CBBBED38930E}">
+  <dimension ref="A1:AE32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -1088,8 +1586,8 @@
       <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="W17" t="s">
-        <v>80</v>
+      <c r="W17" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -1237,4 +1735,532 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B803F1D-0B5B-4AEF-9003-EDF3A1586A0F}">
+  <dimension ref="B1:AG31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AG28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>